--- a/spreadsheets/Vel'Koz.xlsx
+++ b/spreadsheets/Vel'Koz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037B543-89AC-4EE1-9988-837705C8AA20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1E93F-5D91-4838-B618-1E43FA59470E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34725" yWindow="3450" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Velkoz_Support</t>
-  </si>
-  <si>
     <t xml:space="preserve">Easily abused and poked at level 1. This leads to a very easy snowball lane for Vel. Only becomes dangerous once he has mobis.
 </t>
   </si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/Mg308TA.png</t>
+  </si>
+  <si>
+    <t>Velkoz</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -745,126 +745,126 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1898,310 +1898,310 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8">
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="8">
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="8">
         <v>7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="8">
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8">
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="8">
         <v>6</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="8">
         <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="8">
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/spreadsheets/Vel'Koz.xlsx
+++ b/spreadsheets/Vel'Koz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A1E93F-5D91-4838-B618-1E43FA59470E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE1386-F2BC-465C-97CD-31B9BB41AB86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34725" yWindow="3450" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3195" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <t>Feel free to use non integers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eggsalad
-</t>
-  </si>
-  <si>
     <t>For contributor, enter the name you would like to be refered to as.</t>
   </si>
   <si>
@@ -334,6 +330,9 @@
   </si>
   <si>
     <t>Velkoz</t>
+  </si>
+  <si>
+    <t>Eggsalad</t>
   </si>
 </sst>
 </file>
@@ -728,7 +727,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -745,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -767,104 +766,104 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1948,260 +1947,260 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="8">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8">
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8">
         <v>9</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8">
         <v>7</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="8">
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="8">
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="8">
         <v>6</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="8">
         <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="8">
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
